--- a/Project Outputs for SCOM_2_IN_1_JLC_STACKUP/BOM/Bill of Materials-SCOM_2_IN_1_JLC_STACKUP.xlsx
+++ b/Project Outputs for SCOM_2_IN_1_JLC_STACKUP/BOM/Bill of Materials-SCOM_2_IN_1_JLC_STACKUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/SCOM_2_IN_1_JLC_STACKUP/Project Outputs for SCOM_2_IN_1_JLC_STACKUP/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C4A632-B539-4449-B723-44C967C12471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93B05E0F-6F68-4DE3-B60D-39489FCE10EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{05655D36-78B6-40AE-97AF-3AE9BF9DE008}"/>
+    <workbookView xWindow="6840" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{7298FDDD-0397-4FA3-839C-29A5870C7950}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SCOM_2_IN_1_J" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
   <si>
     <t>Designator</t>
   </si>
@@ -215,10 +215,7 @@
     <t>J5</t>
   </si>
   <si>
-    <t>GTFP08431BEU</t>
-  </si>
-  <si>
-    <t>GTFP084</t>
+    <t>5033981892</t>
   </si>
   <si>
     <t>J6</t>
@@ -269,7 +266,7 @@
     <t>L2</t>
   </si>
   <si>
-    <t>CDRH127/LDNP-470MC</t>
+    <t>SLH1207S470MTT</t>
   </si>
   <si>
     <t>M1</t>
@@ -299,7 +296,7 @@
     <t>M4</t>
   </si>
   <si>
-    <t>RFM95W-868S2</t>
+    <t>DL-RFM95-868M</t>
   </si>
   <si>
     <t>RFM96W</t>
@@ -911,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DE81DB-5150-4B90-ABA6-85042AA1584E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982DFDA1-FEF1-442A-8968-EE0BBC255C3B}">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1265,553 +1262,553 @@
         <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1">
         <v>11</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B51" s="1">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
